--- a/data/trans_camb/P25_8-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25_8-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,22</t>
+          <t>-7,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-3,89</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,86</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,26</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>5,21</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>11,49</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-3,71</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,75</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,89</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>5,99</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,4; 3,11</t>
+          <t>-17,2; 0,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 8,48</t>
+          <t>-10,86; 8,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 12,0</t>
+          <t>-4,72; 18,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 8,85</t>
+          <t>-16,1; 8,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 15,22</t>
+          <t>-10,63; 12,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,66; 5,25</t>
+          <t>-8,43; 11,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 2,97</t>
+          <t>-4,23; 15,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 9,11</t>
+          <t>-8,6; 11,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 5,85</t>
+          <t>-5,74; 15,73</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 21,88</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-10,28; 3,02</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-5,31; 8,77</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-3,4; 11,87</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-7,99; 8,56</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-1,92; 14,21</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-33,84%</t>
+          <t>-37,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,31%</t>
+          <t>-8,33%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>29,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,15%</t>
+          <t>-14,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>28,37%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-20,62%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-17,96%</t>
+          <t>24,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-7,23%</t>
+          <t>22,95%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>70,1%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-17,63%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8,29%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>18,45%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>2,1%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>30,74%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-62,61; 20,51</t>
+          <t>-67,08; 8,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-49,07; 52,57</t>
+          <t>-43,21; 54,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-35,21; 73,0</t>
+          <t>-19,63; 121,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,3; 58,98</t>
+          <t>-50,27; 41,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,92; 97,99</t>
+          <t>-38,32; 79,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,99; 35,82</t>
+          <t>-32,87; 76,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,35; 19,87</t>
+          <t>-17,76; 96,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-21,0; 52,54</t>
+          <t>-32,59; 77,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-33,82; 33,93</t>
+          <t>-17,5; 94,68</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4,39; 205,77</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-41,25; 17,99</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-22,08; 51,29</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-14,73; 65,42</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-27,9; 41,84</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-8,43; 87,8</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-13,17</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>8,02</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>-13,71</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-6,46</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>6,99</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7,53</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-6,6</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,45</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>4,85</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>7,8</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 7,58</t>
+          <t>-9,31; 7,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 10,18</t>
+          <t>-6,34; 10,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 9,58</t>
+          <t>-5,39; 15,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,84; -5,14</t>
+          <t>-9,33; 14,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,36; 6,25</t>
+          <t>-3,25; 19,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 6,41</t>
+          <t>-22,16; -5,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,96; -0,64</t>
+          <t>-13,65; 5,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 6,17</t>
+          <t>-14,04; 6,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 5,54</t>
+          <t>-3,87; 16,86</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-2,8; 18,25</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-12,94; -0,28</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-7,99; 5,44</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-6,74; 7,99</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-2,94; 13,19</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-0,79; 15,23</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,86%</t>
+          <t>-1,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,49%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,47%</t>
+          <t>29,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-43,54%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-8,7%</t>
+          <t>48,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-9,15%</t>
+          <t>-44,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-27,55%</t>
+          <t>-11,7%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,13%</t>
+          <t>-8,81%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-6,72%</t>
+          <t>24,94%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>27,39%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-28,08%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-1,93%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>5,5%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>19,57%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>35,66%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-38,24; 59,88</t>
+          <t>-41,3; 62,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,43; 78,16</t>
+          <t>-30,66; 75,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-45,0; 75,96</t>
+          <t>-26,55; 118,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-61,87; -17,74</t>
+          <t>-32,41; 89,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,15; 25,55</t>
+          <t>-17,15; 167,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,66; 25,94</t>
+          <t>-61,31; -19,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,45; -2,23</t>
+          <t>-37,47; 21,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,29; 30,54</t>
+          <t>-39,59; 22,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-31,53; 28,87</t>
+          <t>-12,01; 72,06</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-8,45; 85,3</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-46,16; -0,45</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-27,86; 27,37</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-25,58; 40,12</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-10,7; 62,96</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-1,99; 82,54</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,26</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>9,34</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>-2,55</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,48</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>6,14</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1,43</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 8,45</t>
+          <t>-7,98; 6,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 13,42</t>
+          <t>-6,82; 9,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 12,43</t>
+          <t>-5,26; 9,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 3,44</t>
+          <t>-6,63; 10,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 9,68</t>
+          <t>-7,51; 9,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 12,73</t>
+          <t>-8,59; 3,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 4,33</t>
+          <t>-3,27; 9,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 9,44</t>
+          <t>2,17; 16,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 10,52</t>
+          <t>-10,25; 5,77</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-6,43; 9,07</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,97; 3,23</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,66; 7,88</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1,41; 11,73</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-6,22; 4,83</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-4,47; 6,88</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>-2,16%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>20,99%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>25,89%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-11,57%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>30,22%</t>
+          <t>-13,72%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-2,14%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>50,81%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>27,66%</t>
+          <t>-9,2%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>6,4%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-8,17%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>12,71%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>33,98%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-2,85%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>6,45%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-30,24; 64,94</t>
+          <t>-37,27; 47,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,88; 107,81</t>
+          <t>-31,55; 68,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,15; 91,4</t>
+          <t>-24,97; 67,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-37,72; 23,05</t>
+          <t>-29,52; 56,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 66,48</t>
+          <t>-31,5; 60,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 87,37</t>
+          <t>-39,45; 25,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,29; 27,7</t>
+          <t>-15,75; 59,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 62,37</t>
+          <t>7,81; 109,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 73,67</t>
+          <t>-33,39; 24,99</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-24,7; 44,69</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-29,02; 20,84</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-13,08; 51,35</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>6,36; 75,28</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-23,35; 23,62</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-18,3; 34,38</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>-4,42</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>-2,15</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>3,17</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-3,16</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,73</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-0,89</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2,65</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 3,48</t>
+          <t>-11,19; 1,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 3,51</t>
+          <t>-9,86; 3,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 7,03</t>
+          <t>-6,77; 7,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 4,35</t>
+          <t>-7,11; 8,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 9,4</t>
+          <t>-6,55; 9,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 4,75</t>
+          <t>-8,36; 4,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 1,94</t>
+          <t>-4,19; 9,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 4,4</t>
+          <t>-3,84; 9,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 3,72</t>
+          <t>-10,01; 5,23</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-4,54; 10,69</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-7,48; 1,44</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-5,02; 4,95</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-3,43; 6,61</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-6,49; 4,03</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-2,98; 8,12</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-18,74%</t>
+          <t>-22,71%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-15,27%</t>
+          <t>-15,26%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-4,77%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-7,74%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-7,98%</t>
+          <t>-8,25%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-12,83%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-0,08%</t>
+          <t>12,69%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-7,1%</t>
+          <t>-8,21%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>15,21%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-14,76%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-1,17%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>8,07%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-3,85%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>13,5%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-43,38; 23,78</t>
+          <t>-47,79; 9,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-40,45; 22,16</t>
+          <t>-42,39; 22,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-37,58; 44,42</t>
+          <t>-28,91; 49,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-32,45; 23,46</t>
+          <t>-30,15; 51,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 49,43</t>
+          <t>-29,04; 66,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,68; 24,41</t>
+          <t>-31,42; 23,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-30,53; 10,36</t>
+          <t>-15,16; 46,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-18,9; 23,07</t>
+          <t>-14,41; 48,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-29,33; 20,1</t>
+          <t>-33,76; 23,95</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-17,56; 64,61</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-31,49; 7,69</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-21,58; 25,14</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-14,45; 35,36</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-24,75; 19,36</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-12,57; 50,39</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-5,16</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>6,72</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-4,21</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>5,16</t>
+          <t>5,66</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-4,09</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>2,03</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>5,9</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>1,4</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 2,22</t>
+          <t>-11,03; 1,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 8,88</t>
+          <t>-6,17; 8,64</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 10,21</t>
+          <t>-8,5; 6,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-13,04; 1,61</t>
+          <t>-1,91; 12,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 10,28</t>
+          <t>-6,36; 8,93</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 15,41</t>
+          <t>-12,04; 2,72</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 0,29</t>
+          <t>-5,37; 9,49</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 7,79</t>
+          <t>-5,99; 10,63</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 11,04</t>
+          <t>-3,53; 14,1</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-7,0; 9,44</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-9,08; 0,75</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-3,37; 7,41</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-5,11; 6,44</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 11,33</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-4,53; 7,05</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-27,29%</t>
+          <t>-27,23%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>13,32%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>28,31%</t>
+          <t>-9,22%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-24,87%</t>
+          <t>60,53%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>32,39%</t>
+          <t>-24,09%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-25,99%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>31,88%</t>
+          <t>24,37%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>5,25%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-25,43%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>12,61%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>4,85%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>35,05%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>6,54%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-69,02; 30,05</t>
+          <t>-64,61; 27,57</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-42,01; 119,83</t>
+          <t>-43,83; 109,99</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-36,66; 124,26</t>
+          <t>-55,08; 83,11</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-50,35; 10,46</t>
+          <t>-19,37; 171,09</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-23,06; 62,73</t>
+          <t>-34,24; 82,24</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 98,69</t>
+          <t>-48,08; 16,53</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-50,83; 2,47</t>
+          <t>-21,89; 55,75</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-19,14; 59,68</t>
+          <t>-24,65; 59,44</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 83,17</t>
+          <t>-12,23; 79,1</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-23,59; 40,56</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-47,51; 6,05</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-18,35; 54,39</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-26,45; 50,31</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>0,13; 78,74</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-18,56; 39,35</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-3,56</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>6,73</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>7,51</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-3,14</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>3,52</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>3,23</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>6,29</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 4,8</t>
+          <t>-9,84; 4,39</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 10,92</t>
+          <t>-5,77; 11,66</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 5,59</t>
+          <t>-5,96; 9,01</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 4,29</t>
+          <t>-7,46; 9,64</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 22,83</t>
+          <t>-3,55; 11,75</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 6,51</t>
+          <t>-9,58; 4,38</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 2,76</t>
+          <t>-3,25; 15,82</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 14,17</t>
+          <t>-4,21; 12,92</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 4,27</t>
+          <t>-9,48; 8,95</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-2,52; 16,32</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-8,77; 1,23</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-2,19; 11,79</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-2,65; 9,76</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-6,13; 6,68</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-0,3; 12,16</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-24,61%</t>
+          <t>-29,29%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>13,69%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-8,39%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-14,19%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>39,17%</t>
+          <t>45,24%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-13,22%</t>
+          <t>-15,86%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-17,74%</t>
+          <t>28,74%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>33,02%</t>
+          <t>27,78%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-11,45%</t>
+          <t>0,27%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>50,37%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-20,68%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>23,18%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>21,22%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>3,77%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>48,98%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-65,04; 69,26</t>
+          <t>-65,35; 58,45</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-33,69; 147,82</t>
+          <t>-39,36; 124,47</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-52,67; 77,13</t>
+          <t>-42,77; 99,42</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-47,43; 32,1</t>
+          <t>-42,85; 110,7</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 154,6</t>
+          <t>-29,31; 183,94</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-48,82; 53,72</t>
+          <t>-45,88; 32,86</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-42,38; 25,56</t>
+          <t>-17,42; 107,32</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 116,7</t>
+          <t>-22,11; 94,61</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-38,28; 40,08</t>
+          <t>-34,31; 52,51</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-13,49; 154,98</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-47,73; 11,4</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-13,72; 97,21</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-16,47; 75,2</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-27,97; 43,89</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-2,0; 125,73</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-3,83</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-3,94</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>5,19</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-3,54</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>2,93</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>1,51</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>4,16</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 0,73</t>
+          <t>-6,28; 0,02</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 4,53</t>
+          <t>-3,11; 3,86</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 4,33</t>
+          <t>-1,16; 5,56</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-6,93; -0,8</t>
+          <t>-2,25; 5,2</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,1; 6,92</t>
+          <t>-0,92; 6,73</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 3,75</t>
+          <t>-6,83; -1,31</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-5,15; -0,71</t>
+          <t>-0,66; 6,0</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 4,84</t>
+          <t>0,12; 7,0</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 2,97</t>
+          <t>-1,69; 5,51</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1,16; 8,74</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-5,57; -1,24</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-0,93; 3,78</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 5,62</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-0,9; 4,48</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>1,49; 6,93</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-14,57%</t>
+          <t>-18,73%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>14,12%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-18,05%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>18,06%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>-18,26%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-16,59%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>6,79%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>24,01%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-18,47%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>7,94%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>15,31%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>21,4%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-31,67; 4,77</t>
+          <t>-33,26; 0,39</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 31,12</t>
+          <t>-17,39; 24,78</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 29,85</t>
+          <t>-6,94; 37,47</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-29,29; -3,64</t>
+          <t>-10,75; 30,67</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,2; 34,54</t>
+          <t>-4,51; 43,37</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-12,35; 19,06</t>
+          <t>-29,3; -6,33</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-26,0; -4,51</t>
+          <t>-2,77; 30,3</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 27,0</t>
+          <t>0,42; 34,33</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 17,14</t>
+          <t>-6,36; 24,72</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>5,56; 44,36</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-27,63; -6,71</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-4,7; 20,64</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>1,86; 31,3</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 21,94</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>7,05; 37,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
